--- a/Bug_report.xlsx
+++ b/Bug_report.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -496,6 +496,9 @@
 3. Нажать на ссылку-картинку "Йога"
 4. Заполнить формуне допустимыми символами (пробел, 0)
 5. Нажать "ОТПРАВИТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1601,11 +1604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2037,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="261.75" customHeight="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="261.75" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2062,8 +2065,11 @@
       <c r="H17" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
+      <c r="I17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2073,7 +2079,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:9" s="3" customFormat="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2083,7 +2089,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2093,7 +2099,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2103,7 +2109,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2113,7 +2119,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    <row r="23" spans="1:9" s="3" customFormat="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2123,7 +2129,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
+    <row r="24" spans="1:9" s="3" customFormat="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2133,7 +2139,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    <row r="25" spans="1:9" s="3" customFormat="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2143,7 +2149,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1">
+    <row r="26" spans="1:9" s="3" customFormat="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2153,7 +2159,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+    <row r="27" spans="1:9" s="3" customFormat="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2163,7 +2169,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1">
+    <row r="28" spans="1:9" s="3" customFormat="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2173,7 +2179,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
+    <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2183,7 +2189,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1">
+    <row r="30" spans="1:9" s="3" customFormat="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2193,7 +2199,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
+    <row r="31" spans="1:9" s="3" customFormat="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2203,7 +2209,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1">
+    <row r="32" spans="1:9" s="3" customFormat="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
